--- a/data/positive_signals/Indirectly connected (A-X-B) - Aspirin - Upper gastrointestinal bleeding.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Aspirin - Upper gastrointestinal bleeding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="458">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,166 +173,661 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4034126</t>
+  </si>
+  <si>
+    <t>gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>5805729</t>
+  </si>
+  <si>
+    <t>upper gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>12788806</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>126583074</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>52719364</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>138120759</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>75109471</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>76622398</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>85545261</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>53572674</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>138120754</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>137372325</t>
+  </si>
+  <si>
+    <t>4048474</t>
+  </si>
+  <si>
+    <t>hemorrhage</t>
+  </si>
+  <si>
+    <t>12799762</t>
+  </si>
+  <si>
+    <t>12801079</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>67998096</t>
+  </si>
+  <si>
+    <t>137241956</t>
+  </si>
+  <si>
+    <t>75067257</t>
+  </si>
+  <si>
+    <t>96492375</t>
+  </si>
+  <si>
+    <t>137241955</t>
+  </si>
+  <si>
+    <t>137372357</t>
+  </si>
+  <si>
+    <t>77266534</t>
+  </si>
+  <si>
+    <t>51521373</t>
+  </si>
+  <si>
     <t>643114</t>
   </si>
   <si>
     <t>aspirin</t>
   </si>
   <si>
-    <t>5805729</t>
-  </si>
-  <si>
-    <t>upper gastrointestinal hemorrhage</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>203420328</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>162299423</t>
+    <t>137232100</t>
+  </si>
+  <si>
+    <t>59911059</t>
+  </si>
+  <si>
+    <t>98436328</t>
+  </si>
+  <si>
+    <t>83700492</t>
+  </si>
+  <si>
+    <t>89019685</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>96166043</t>
   </si>
   <si>
     <t>prevents</t>
   </si>
   <si>
-    <t>164647225</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>126343661</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>149698833</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>155199356</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>150119135</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
+    <t>83278345</t>
+  </si>
+  <si>
+    <t>490003</t>
+  </si>
+  <si>
+    <t>cyclooxygenase 1</t>
+  </si>
+  <si>
+    <t>5773378</t>
+  </si>
+  <si>
+    <t>binds with</t>
+  </si>
+  <si>
+    <t>1004300</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>4381451</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>113478507</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>4048501</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>16860923</t>
+  </si>
+  <si>
+    <t>73648961</t>
+  </si>
+  <si>
+    <t>65077</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>2939199</t>
+  </si>
+  <si>
+    <t>7923289</t>
+  </si>
+  <si>
+    <t>4898284</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>94632524</t>
+  </si>
+  <si>
+    <t>696688</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>17303641</t>
+  </si>
+  <si>
+    <t>105031633</t>
+  </si>
+  <si>
+    <t>5177473</t>
+  </si>
+  <si>
+    <t>clopidogrel</t>
+  </si>
+  <si>
+    <t>17259283</t>
+  </si>
+  <si>
+    <t>85769085</t>
+  </si>
+  <si>
+    <t>127001360</t>
+  </si>
+  <si>
+    <t>94172931</t>
+  </si>
+  <si>
+    <t>79881770</t>
+  </si>
+  <si>
+    <t>4028703</t>
+  </si>
+  <si>
+    <t>methotrexate</t>
+  </si>
+  <si>
+    <t>17587202</t>
+  </si>
+  <si>
+    <t>60534444</t>
+  </si>
+  <si>
+    <t>4047945</t>
+  </si>
+  <si>
+    <t>hematemesis</t>
+  </si>
+  <si>
+    <t>12798306</t>
+  </si>
+  <si>
+    <t>129922345</t>
+  </si>
+  <si>
+    <t>137372339</t>
+  </si>
+  <si>
+    <t>132627220</t>
+  </si>
+  <si>
+    <t>99621369</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>61457915</t>
+  </si>
+  <si>
+    <t>60184786</t>
+  </si>
+  <si>
+    <t>42233</t>
+  </si>
+  <si>
+    <t>thrombosis</t>
+  </si>
+  <si>
+    <t>12862569</t>
+  </si>
+  <si>
+    <t>12861994</t>
+  </si>
+  <si>
+    <t>132840877</t>
+  </si>
+  <si>
+    <t>70089524</t>
+  </si>
+  <si>
+    <t>139736</t>
+  </si>
+  <si>
+    <t>gastric ulcer</t>
+  </si>
+  <si>
+    <t>12848709</t>
+  </si>
+  <si>
+    <t>52248242</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>91877721</t>
+  </si>
+  <si>
+    <t>119260084</t>
+  </si>
+  <si>
+    <t>54759988</t>
+  </si>
+  <si>
+    <t>645968</t>
+  </si>
+  <si>
+    <t>dinoprostone</t>
+  </si>
+  <si>
+    <t>17219251</t>
+  </si>
+  <si>
+    <t>93678075</t>
+  </si>
+  <si>
+    <t>1614515</t>
+  </si>
+  <si>
+    <t>coronary arteriosclerosis</t>
+  </si>
+  <si>
+    <t>12772821</t>
+  </si>
+  <si>
+    <t>120743338</t>
+  </si>
+  <si>
+    <t>4034155</t>
+  </si>
+  <si>
+    <t>gastrointestinal diseases</t>
+  </si>
+  <si>
+    <t>12787432</t>
+  </si>
+  <si>
+    <t>118066310</t>
+  </si>
+  <si>
+    <t>90359948</t>
+  </si>
+  <si>
+    <t>5011221</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>12881898</t>
+  </si>
+  <si>
+    <t>123299605</t>
+  </si>
+  <si>
+    <t>94185779</t>
+  </si>
+  <si>
+    <t>99621406</t>
+  </si>
+  <si>
+    <t>368721</t>
+  </si>
+  <si>
+    <t>atrial fibrillation</t>
+  </si>
+  <si>
+    <t>12758832</t>
+  </si>
+  <si>
+    <t>93584059</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
   </si>
   <si>
     <t>Living Beings</t>
   </si>
   <si>
-    <t>69989564</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>70256421</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>68898640</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>132028620</t>
+    <t>3963489</t>
+  </si>
+  <si>
+    <t>51977415</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>4048501</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide</t>
-  </si>
-  <si>
-    <t>83610613</t>
-  </si>
-  <si>
-    <t>140083265</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>65077</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>69367819</t>
-  </si>
-  <si>
-    <t>74358500</t>
-  </si>
-  <si>
-    <t>71290549</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>160806986</t>
-  </si>
-  <si>
-    <t>696688</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>83802133</t>
-  </si>
-  <si>
-    <t>171146345</t>
-  </si>
-  <si>
-    <t>5177473</t>
-  </si>
-  <si>
-    <t>clopidogrel</t>
-  </si>
-  <si>
-    <t>83605878</t>
-  </si>
-  <si>
-    <t>193212248</t>
-  </si>
-  <si>
-    <t>152139314</t>
-  </si>
-  <si>
-    <t>146327320</t>
-  </si>
-  <si>
-    <t>160350289</t>
+    <t>775268</t>
+  </si>
+  <si>
+    <t>duodenal ulcer</t>
+  </si>
+  <si>
+    <t>12783913</t>
+  </si>
+  <si>
+    <t>86760292</t>
+  </si>
+  <si>
+    <t>66799543</t>
+  </si>
+  <si>
+    <t>91294154</t>
+  </si>
+  <si>
+    <t>4034362</t>
+  </si>
+  <si>
+    <t>gastritis</t>
+  </si>
+  <si>
+    <t>12786867</t>
+  </si>
+  <si>
+    <t>62498106</t>
+  </si>
+  <si>
+    <t>93986069</t>
+  </si>
+  <si>
+    <t>3816033</t>
+  </si>
+  <si>
+    <t>warfarin</t>
+  </si>
+  <si>
+    <t>17145582</t>
+  </si>
+  <si>
+    <t>63624295</t>
+  </si>
+  <si>
+    <t>63624603</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>12805179</t>
+  </si>
+  <si>
+    <t>12805421</t>
+  </si>
+  <si>
+    <t>88110518</t>
+  </si>
+  <si>
+    <t>131934131</t>
+  </si>
+  <si>
+    <t>432075</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>12749578</t>
+  </si>
+  <si>
+    <t>89588253</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>77711880</t>
+  </si>
+  <si>
+    <t>129717103</t>
+  </si>
+  <si>
+    <t>3815238</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>23766455</t>
+  </si>
+  <si>
+    <t>117528422</t>
+  </si>
+  <si>
+    <t>117528390</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>12747036</t>
+  </si>
+  <si>
+    <t>71472828</t>
+  </si>
+  <si>
+    <t>64985054</t>
+  </si>
+  <si>
+    <t>476523</t>
+  </si>
+  <si>
+    <t>cardiovascular diseases</t>
+  </si>
+  <si>
+    <t>12763023</t>
+  </si>
+  <si>
+    <t>12763053</t>
+  </si>
+  <si>
+    <t>127330022</t>
+  </si>
+  <si>
+    <t>106568234</t>
+  </si>
+  <si>
+    <t>335449</t>
+  </si>
+  <si>
+    <t>esophagitis</t>
+  </si>
+  <si>
+    <t>12785304</t>
+  </si>
+  <si>
+    <t>51662795</t>
+  </si>
+  <si>
+    <t>4813121</t>
+  </si>
+  <si>
+    <t>angina, unstable</t>
+  </si>
+  <si>
+    <t>12753422</t>
+  </si>
+  <si>
+    <t>70038667</t>
+  </si>
+  <si>
+    <t>4028517</t>
+  </si>
+  <si>
+    <t>kidney failure, chronic</t>
+  </si>
+  <si>
+    <t>12816650</t>
+  </si>
+  <si>
+    <t>110904367</t>
+  </si>
+  <si>
+    <t>73624453</t>
+  </si>
+  <si>
+    <t>4027933</t>
+  </si>
+  <si>
+    <t>marginal ulcer</t>
+  </si>
+  <si>
+    <t>12833732</t>
+  </si>
+  <si>
+    <t>65024664</t>
+  </si>
+  <si>
+    <t>4027524</t>
+  </si>
+  <si>
+    <t>peptic ulcer</t>
+  </si>
+  <si>
+    <t>12833730</t>
+  </si>
+  <si>
+    <t>79864789</t>
+  </si>
+  <si>
+    <t>130793139</t>
+  </si>
+  <si>
+    <t>51324214</t>
+  </si>
+  <si>
+    <t>99871569</t>
+  </si>
+  <si>
+    <t>52633760</t>
+  </si>
+  <si>
+    <t>70892892</t>
+  </si>
+  <si>
+    <t>55399664</t>
+  </si>
+  <si>
+    <t>322969</t>
+  </si>
+  <si>
+    <t>stomach diseases</t>
+  </si>
+  <si>
+    <t>12847969</t>
+  </si>
+  <si>
+    <t>53389917</t>
+  </si>
+  <si>
+    <t>75174126</t>
+  </si>
+  <si>
+    <t>69658378</t>
+  </si>
+  <si>
+    <t>75321782</t>
+  </si>
+  <si>
+    <t>105366624</t>
+  </si>
+  <si>
+    <t>125511363</t>
   </si>
   <si>
     <t>3007189</t>
@@ -341,262 +836,475 @@
     <t>myocardial infarction</t>
   </si>
   <si>
-    <t>79221095</t>
-  </si>
-  <si>
-    <t>79220933</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>139726919</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>119413956</t>
-  </si>
-  <si>
-    <t>137511752</t>
-  </si>
-  <si>
-    <t>130304558</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>4048474</t>
-  </si>
-  <si>
-    <t>hemorrhage</t>
-  </si>
-  <si>
-    <t>79199974</t>
-  </si>
-  <si>
-    <t>79199000</t>
-  </si>
-  <si>
-    <t>141500835</t>
-  </si>
-  <si>
-    <t>203430773</t>
-  </si>
-  <si>
-    <t>131531894</t>
-  </si>
-  <si>
-    <t>162695617</t>
-  </si>
-  <si>
-    <t>143661283</t>
-  </si>
-  <si>
-    <t>117728164</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>203561734</t>
-  </si>
-  <si>
-    <t>203430776</t>
-  </si>
-  <si>
-    <t>4028703</t>
-  </si>
-  <si>
-    <t>methotrexate</t>
-  </si>
-  <si>
-    <t>83920497</t>
-  </si>
-  <si>
-    <t>126969162</t>
-  </si>
-  <si>
-    <t>42233</t>
-  </si>
-  <si>
-    <t>thrombosis</t>
-  </si>
-  <si>
-    <t>79244185</t>
-  </si>
-  <si>
-    <t>79244378</t>
-  </si>
-  <si>
-    <t>133827631</t>
-  </si>
-  <si>
-    <t>199032267</t>
-  </si>
-  <si>
-    <t>645968</t>
-  </si>
-  <si>
-    <t>dinoprostone</t>
-  </si>
-  <si>
-    <t>83334047</t>
-  </si>
-  <si>
-    <t>159968650</t>
-  </si>
-  <si>
-    <t>139736</t>
-  </si>
-  <si>
-    <t>gastric ulcer</t>
-  </si>
-  <si>
-    <t>79237126</t>
-  </si>
-  <si>
-    <t>121122432</t>
-  </si>
-  <si>
-    <t>118470226</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>185476915</t>
-  </si>
-  <si>
-    <t>158049161</t>
-  </si>
-  <si>
-    <t>4034126</t>
-  </si>
-  <si>
-    <t>gastrointestinal hemorrhage</t>
-  </si>
-  <si>
-    <t>79188453</t>
-  </si>
-  <si>
-    <t>192773563</t>
-  </si>
-  <si>
-    <t>151954121</t>
-  </si>
-  <si>
-    <t>204308670</t>
-  </si>
-  <si>
-    <t>119898027</t>
-  </si>
-  <si>
-    <t>139061391</t>
-  </si>
-  <si>
-    <t>119002418</t>
-  </si>
-  <si>
-    <t>143021041</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>204308668</t>
-  </si>
-  <si>
-    <t>203561710</t>
-  </si>
-  <si>
-    <t>490003</t>
-  </si>
-  <si>
-    <t>cyclooxygenase 1</t>
-  </si>
-  <si>
-    <t>67424572</t>
-  </si>
-  <si>
-    <t>179652029</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>1614515</t>
-  </si>
-  <si>
-    <t>coronary arteriosclerosis</t>
-  </si>
-  <si>
-    <t>79171864</t>
-  </si>
-  <si>
-    <t>186932000</t>
-  </si>
-  <si>
-    <t>4034155</t>
-  </si>
-  <si>
-    <t>gastrointestinal diseases</t>
-  </si>
-  <si>
-    <t>79187422</t>
-  </si>
-  <si>
-    <t>156515193</t>
-  </si>
-  <si>
-    <t>184276709</t>
-  </si>
-  <si>
-    <t>5011221</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>79257099</t>
-  </si>
-  <si>
-    <t>189440703</t>
-  </si>
-  <si>
-    <t>160380659</t>
-  </si>
-  <si>
-    <t>165736750</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>368721</t>
-  </si>
-  <si>
-    <t>atrial fibrillation</t>
-  </si>
-  <si>
-    <t>79161716</t>
-  </si>
-  <si>
-    <t>159761811</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>70395378</t>
-  </si>
-  <si>
-    <t>118222244</t>
+    <t>12824571</t>
+  </si>
+  <si>
+    <t>12824692</t>
+  </si>
+  <si>
+    <t>63942942</t>
+  </si>
+  <si>
+    <t>53109577</t>
+  </si>
+  <si>
+    <t>73340742</t>
+  </si>
+  <si>
+    <t>71021541</t>
+  </si>
+  <si>
+    <t>1054812</t>
+  </si>
+  <si>
+    <t>venous thrombosis</t>
+  </si>
+  <si>
+    <t>12879748</t>
+  </si>
+  <si>
+    <t>12879847</t>
+  </si>
+  <si>
+    <t>56557698</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>12836818</t>
+  </si>
+  <si>
+    <t>95268559</t>
+  </si>
+  <si>
+    <t>106203515</t>
+  </si>
+  <si>
+    <t>5272626</t>
+  </si>
+  <si>
+    <t>curling ulcer</t>
+  </si>
+  <si>
+    <t>12783917</t>
+  </si>
+  <si>
+    <t>78286611</t>
+  </si>
+  <si>
+    <t>111739661</t>
+  </si>
+  <si>
+    <t>74199479</t>
+  </si>
+  <si>
+    <t>5229197</t>
+  </si>
+  <si>
+    <t>intracranial hypertension</t>
+  </si>
+  <si>
+    <t>12811792</t>
+  </si>
+  <si>
+    <t>105635128</t>
+  </si>
+  <si>
+    <t>448918</t>
+  </si>
+  <si>
+    <t>malignant neoplasm of stomach</t>
+  </si>
+  <si>
+    <t>12848610</t>
+  </si>
+  <si>
+    <t>12848228</t>
+  </si>
+  <si>
+    <t>60737024</t>
+  </si>
+  <si>
+    <t>4048571</t>
+  </si>
+  <si>
+    <t>hepatic coma</t>
+  </si>
+  <si>
+    <t>12801817</t>
+  </si>
+  <si>
+    <t>88031998</t>
+  </si>
+  <si>
+    <t>4048118</t>
+  </si>
+  <si>
+    <t>icterus</t>
+  </si>
+  <si>
+    <t>12815666</t>
+  </si>
+  <si>
+    <t>64984780</t>
+  </si>
+  <si>
+    <t>361979</t>
+  </si>
+  <si>
+    <t>malignant neoplasm of pancreas</t>
+  </si>
+  <si>
+    <t>12832957</t>
+  </si>
+  <si>
+    <t>100019798</t>
+  </si>
+  <si>
+    <t>347140</t>
+  </si>
+  <si>
+    <t>hepatic encephalopathy</t>
+  </si>
+  <si>
+    <t>12801815</t>
+  </si>
+  <si>
+    <t>103447870</t>
+  </si>
+  <si>
+    <t>78862534</t>
+  </si>
+  <si>
+    <t>82735507</t>
+  </si>
+  <si>
+    <t>836316</t>
+  </si>
+  <si>
+    <t>blood coagulation disorders</t>
+  </si>
+  <si>
+    <t>12759968</t>
+  </si>
+  <si>
+    <t>125199900</t>
+  </si>
+  <si>
+    <t>68912748</t>
+  </si>
+  <si>
+    <t>132322977</t>
+  </si>
+  <si>
+    <t>690941</t>
+  </si>
+  <si>
+    <t>melena</t>
+  </si>
+  <si>
+    <t>12819676</t>
+  </si>
+  <si>
+    <t>52138949</t>
+  </si>
+  <si>
+    <t>127851474</t>
+  </si>
+  <si>
+    <t>648376</t>
+  </si>
+  <si>
+    <t>cholecystitis</t>
+  </si>
+  <si>
+    <t>12766561</t>
+  </si>
+  <si>
+    <t>97847853</t>
+  </si>
+  <si>
+    <t>584032</t>
+  </si>
+  <si>
+    <t>ulcer</t>
+  </si>
+  <si>
+    <t>12876539</t>
+  </si>
+  <si>
+    <t>117871275</t>
+  </si>
+  <si>
+    <t>62024542</t>
+  </si>
+  <si>
+    <t>103835526</t>
+  </si>
+  <si>
+    <t>88969859</t>
+  </si>
+  <si>
+    <t>97914</t>
+  </si>
+  <si>
+    <t>stomach neoplasms</t>
+  </si>
+  <si>
+    <t>12848607</t>
+  </si>
+  <si>
+    <t>12848224</t>
+  </si>
+  <si>
+    <t>112497188</t>
+  </si>
+  <si>
+    <t>715499</t>
+  </si>
+  <si>
+    <t>henoch-schoenlein purpura</t>
+  </si>
+  <si>
+    <t>12836691</t>
+  </si>
+  <si>
+    <t>94180032</t>
+  </si>
+  <si>
+    <t>644448</t>
+  </si>
+  <si>
+    <t>diaphragmatic hernia</t>
+  </si>
+  <si>
+    <t>12802423</t>
+  </si>
+  <si>
+    <t>97521074</t>
+  </si>
+  <si>
+    <t>54376527</t>
+  </si>
+  <si>
+    <t>587648</t>
+  </si>
+  <si>
+    <t>mucositis</t>
+  </si>
+  <si>
+    <t>12822833</t>
+  </si>
+  <si>
+    <t>127346412</t>
+  </si>
+  <si>
+    <t>5229143</t>
+  </si>
+  <si>
+    <t>iron deficiency anemia</t>
+  </si>
+  <si>
+    <t>12750969</t>
+  </si>
+  <si>
+    <t>121959974</t>
+  </si>
+  <si>
+    <t>522290</t>
+  </si>
+  <si>
+    <t>testicular neoplasms</t>
+  </si>
+  <si>
+    <t>12860342</t>
+  </si>
+  <si>
+    <t>97479389</t>
+  </si>
+  <si>
+    <t>5131040</t>
+  </si>
+  <si>
+    <t>pulmonary edema</t>
+  </si>
+  <si>
+    <t>12836131</t>
+  </si>
+  <si>
+    <t>63943012</t>
+  </si>
+  <si>
+    <t>437699</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>12802159</t>
+  </si>
+  <si>
+    <t>62248895</t>
+  </si>
+  <si>
+    <t>4049024</t>
+  </si>
+  <si>
+    <t>hypercalcemia</t>
+  </si>
+  <si>
+    <t>12804303</t>
+  </si>
+  <si>
+    <t>59227639</t>
+  </si>
+  <si>
+    <t>4048351</t>
+  </si>
+  <si>
+    <t>hematoma, subdural</t>
+  </si>
+  <si>
+    <t>12798993</t>
+  </si>
+  <si>
+    <t>124713718</t>
+  </si>
+  <si>
+    <t>4048316</t>
+  </si>
+  <si>
+    <t>heart failure</t>
+  </si>
+  <si>
+    <t>12797994</t>
+  </si>
+  <si>
+    <t>56318004</t>
+  </si>
+  <si>
+    <t>107716466</t>
+  </si>
+  <si>
+    <t>4041637</t>
+  </si>
+  <si>
+    <t>esophageal diseases</t>
+  </si>
+  <si>
+    <t>12785250</t>
+  </si>
+  <si>
+    <t>88441825</t>
+  </si>
+  <si>
+    <t>4040839</t>
+  </si>
+  <si>
+    <t>diabetes mellitus</t>
+  </si>
+  <si>
+    <t>12776483</t>
+  </si>
+  <si>
+    <t>89160032</t>
+  </si>
+  <si>
+    <t>4035332</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>12786052</t>
+  </si>
+  <si>
+    <t>12786012</t>
+  </si>
+  <si>
+    <t>131165834</t>
+  </si>
+  <si>
+    <t>4034252</t>
+  </si>
+  <si>
+    <t>leukocytosis</t>
+  </si>
+  <si>
+    <t>12818862</t>
+  </si>
+  <si>
+    <t>103862473</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>3816063</t>
+  </si>
+  <si>
+    <t>thrombocytopenia</t>
+  </si>
+  <si>
+    <t>12861002</t>
+  </si>
+  <si>
+    <t>100718841</t>
+  </si>
+  <si>
+    <t>125082425</t>
+  </si>
+  <si>
+    <t>310950</t>
+  </si>
+  <si>
+    <t>vascular diseases</t>
+  </si>
+  <si>
+    <t>12879389</t>
+  </si>
+  <si>
+    <t>12879312</t>
+  </si>
+  <si>
+    <t>70216331</t>
+  </si>
+  <si>
+    <t>57870924</t>
+  </si>
+  <si>
+    <t>3000767</t>
+  </si>
+  <si>
+    <t>phb2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>22105249</t>
+  </si>
+  <si>
+    <t>94097585</t>
+  </si>
+  <si>
+    <t>2786788</t>
+  </si>
+  <si>
+    <t>cyp2c9 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19819431</t>
+  </si>
+  <si>
+    <t>57049115</t>
+  </si>
+  <si>
+    <t>57047837</t>
   </si>
   <si>
     <t>220950</t>
@@ -605,733 +1313,13 @@
     <t>kidney failure, acute</t>
   </si>
   <si>
-    <t>79152619</t>
-  </si>
-  <si>
-    <t>79153762</t>
-  </si>
-  <si>
-    <t>136945593</t>
-  </si>
-  <si>
-    <t>4034362</t>
-  </si>
-  <si>
-    <t>gastritis</t>
-  </si>
-  <si>
-    <t>79186970</t>
-  </si>
-  <si>
-    <t>160271618</t>
-  </si>
-  <si>
-    <t>128877305</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>79203867</t>
-  </si>
-  <si>
-    <t>79203609</t>
-  </si>
-  <si>
-    <t>198091409</t>
-  </si>
-  <si>
-    <t>154348012</t>
-  </si>
-  <si>
-    <t>432075</t>
-  </si>
-  <si>
-    <t>anemia</t>
-  </si>
-  <si>
-    <t>79155860</t>
-  </si>
-  <si>
-    <t>195904313</t>
-  </si>
-  <si>
-    <t>144106917</t>
-  </si>
-  <si>
-    <t>155857218</t>
-  </si>
-  <si>
-    <t>3816033</t>
-  </si>
-  <si>
-    <t>warfarin</t>
-  </si>
-  <si>
-    <t>89914469</t>
-  </si>
-  <si>
-    <t>130035012</t>
-  </si>
-  <si>
-    <t>130035439</t>
-  </si>
-  <si>
-    <t>3815238</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>89711991</t>
-  </si>
-  <si>
-    <t>183734691</t>
-  </si>
-  <si>
-    <t>183734654</t>
-  </si>
-  <si>
-    <t>310950</t>
-  </si>
-  <si>
-    <t>vascular diseases</t>
-  </si>
-  <si>
-    <t>79254606</t>
-  </si>
-  <si>
-    <t>79254542</t>
-  </si>
-  <si>
-    <t>124302724</t>
-  </si>
-  <si>
-    <t>136627687</t>
-  </si>
-  <si>
-    <t>476523</t>
-  </si>
-  <si>
-    <t>cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>79165588</t>
-  </si>
-  <si>
-    <t>79165571</t>
-  </si>
-  <si>
-    <t>193482201</t>
-  </si>
-  <si>
-    <t>172765162</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>79151669</t>
-  </si>
-  <si>
-    <t>137867848</t>
-  </si>
-  <si>
-    <t>131471321</t>
-  </si>
-  <si>
-    <t>335449</t>
-  </si>
-  <si>
-    <t>esophagitis</t>
-  </si>
-  <si>
-    <t>79185348</t>
-  </si>
-  <si>
-    <t>117879785</t>
-  </si>
-  <si>
-    <t>4047945</t>
-  </si>
-  <si>
-    <t>hematemesis</t>
-  </si>
-  <si>
-    <t>79197933</t>
-  </si>
-  <si>
-    <t>165736711</t>
-  </si>
-  <si>
-    <t>127902316</t>
-  </si>
-  <si>
-    <t>196110983</t>
-  </si>
-  <si>
-    <t>198820420</t>
-  </si>
-  <si>
-    <t>126596542</t>
-  </si>
-  <si>
-    <t>203561721</t>
-  </si>
-  <si>
-    <t>4813121</t>
-  </si>
-  <si>
-    <t>angina, unstable</t>
-  </si>
-  <si>
-    <t>79157485</t>
-  </si>
-  <si>
-    <t>136534958</t>
-  </si>
-  <si>
-    <t>4028517</t>
-  </si>
-  <si>
-    <t>kidney failure, chronic</t>
-  </si>
-  <si>
-    <t>79213194</t>
-  </si>
-  <si>
-    <t>140095390</t>
-  </si>
-  <si>
-    <t>177135009</t>
-  </si>
-  <si>
-    <t>4027933</t>
-  </si>
-  <si>
-    <t>marginal ulcer</t>
-  </si>
-  <si>
-    <t>79229746</t>
-  </si>
-  <si>
-    <t>131427438</t>
-  </si>
-  <si>
-    <t>4027524</t>
-  </si>
-  <si>
-    <t>peptic ulcer</t>
-  </si>
-  <si>
-    <t>79229744</t>
-  </si>
-  <si>
-    <t>146311796</t>
-  </si>
-  <si>
-    <t>137298752</t>
-  </si>
-  <si>
-    <t>117518932</t>
-  </si>
-  <si>
-    <t>196996751</t>
-  </si>
-  <si>
-    <t>166071275</t>
-  </si>
-  <si>
-    <t>121793266</t>
-  </si>
-  <si>
-    <t>118937986</t>
-  </si>
-  <si>
-    <t>322969</t>
-  </si>
-  <si>
-    <t>stomach diseases</t>
-  </si>
-  <si>
-    <t>79236659</t>
-  </si>
-  <si>
-    <t>191722361</t>
-  </si>
-  <si>
-    <t>141711714</t>
-  </si>
-  <si>
-    <t>141609186</t>
-  </si>
-  <si>
-    <t>171478845</t>
-  </si>
-  <si>
-    <t>119712587</t>
-  </si>
-  <si>
-    <t>136141758</t>
-  </si>
-  <si>
-    <t>1054812</t>
-  </si>
-  <si>
-    <t>venous thrombosis</t>
-  </si>
-  <si>
-    <t>79255143</t>
-  </si>
-  <si>
-    <t>79255013</t>
-  </si>
-  <si>
-    <t>122938747</t>
-  </si>
-  <si>
-    <t>347140</t>
-  </si>
-  <si>
-    <t>hepatic encephalopathy</t>
-  </si>
-  <si>
-    <t>79200536</t>
-  </si>
-  <si>
-    <t>145349657</t>
-  </si>
-  <si>
-    <t>169671742</t>
-  </si>
-  <si>
-    <t>149112319</t>
-  </si>
-  <si>
-    <t>97914</t>
-  </si>
-  <si>
-    <t>stomach neoplasms</t>
-  </si>
-  <si>
-    <t>79237058</t>
-  </si>
-  <si>
-    <t>79236824</t>
-  </si>
-  <si>
-    <t>178707106</t>
-  </si>
-  <si>
-    <t>775268</t>
-  </si>
-  <si>
-    <t>duodenal ulcer</t>
-  </si>
-  <si>
-    <t>79183614</t>
-  </si>
-  <si>
-    <t>157485071</t>
-  </si>
-  <si>
-    <t>153178635</t>
-  </si>
-  <si>
-    <t>133194610</t>
-  </si>
-  <si>
-    <t>5272626</t>
-  </si>
-  <si>
-    <t>curling ulcer</t>
-  </si>
-  <si>
-    <t>79183618</t>
-  </si>
-  <si>
-    <t>140678139</t>
-  </si>
-  <si>
-    <t>144680098</t>
-  </si>
-  <si>
-    <t>177949002</t>
-  </si>
-  <si>
-    <t>5229197</t>
-  </si>
-  <si>
-    <t>intracranial hypertension</t>
-  </si>
-  <si>
-    <t>79209345</t>
-  </si>
-  <si>
-    <t>171847204</t>
-  </si>
-  <si>
-    <t>4048571</t>
-  </si>
-  <si>
-    <t>hepatic coma</t>
-  </si>
-  <si>
-    <t>79200539</t>
-  </si>
-  <si>
-    <t>152501024</t>
-  </si>
-  <si>
-    <t>4048118</t>
-  </si>
-  <si>
-    <t>icterus</t>
-  </si>
-  <si>
-    <t>79212377</t>
-  </si>
-  <si>
-    <t>131471054</t>
-  </si>
-  <si>
-    <t>361979</t>
-  </si>
-  <si>
-    <t>malignant neoplasm of pancreas</t>
-  </si>
-  <si>
-    <t>79229208</t>
-  </si>
-  <si>
-    <t>166212630</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>79231528</t>
-  </si>
-  <si>
-    <t>161406463</t>
-  </si>
-  <si>
-    <t>172422941</t>
-  </si>
-  <si>
-    <t>690941</t>
-  </si>
-  <si>
-    <t>melena</t>
-  </si>
-  <si>
-    <t>79216286</t>
-  </si>
-  <si>
-    <t>118366098</t>
-  </si>
-  <si>
-    <t>194006970</t>
-  </si>
-  <si>
-    <t>648376</t>
-  </si>
-  <si>
-    <t>cholecystitis</t>
-  </si>
-  <si>
-    <t>79168653</t>
-  </si>
-  <si>
-    <t>164054184</t>
-  </si>
-  <si>
-    <t>836316</t>
-  </si>
-  <si>
-    <t>blood coagulation disorders</t>
-  </si>
-  <si>
-    <t>79162862</t>
-  </si>
-  <si>
-    <t>191389352</t>
-  </si>
-  <si>
-    <t>198516909</t>
-  </si>
-  <si>
-    <t>135304332</t>
-  </si>
-  <si>
-    <t>715499</t>
-  </si>
-  <si>
-    <t>henoch-schoenlein purpura</t>
-  </si>
-  <si>
-    <t>79231464</t>
-  </si>
-  <si>
-    <t>160374528</t>
-  </si>
-  <si>
-    <t>644448</t>
-  </si>
-  <si>
-    <t>diaphragmatic hernia</t>
-  </si>
-  <si>
-    <t>79200854</t>
-  </si>
-  <si>
-    <t>163719866</t>
-  </si>
-  <si>
-    <t>120764407</t>
-  </si>
-  <si>
-    <t>587648</t>
-  </si>
-  <si>
-    <t>mucositis</t>
-  </si>
-  <si>
-    <t>79219948</t>
-  </si>
-  <si>
-    <t>193499020</t>
-  </si>
-  <si>
-    <t>584032</t>
-  </si>
-  <si>
-    <t>ulcer</t>
-  </si>
-  <si>
-    <t>79252161</t>
-  </si>
-  <si>
-    <t>128463865</t>
-  </si>
-  <si>
-    <t>155150098</t>
-  </si>
-  <si>
-    <t>170036013</t>
-  </si>
-  <si>
-    <t>184081497</t>
-  </si>
-  <si>
-    <t>5229143</t>
-  </si>
-  <si>
-    <t>iron deficiency anemia</t>
-  </si>
-  <si>
-    <t>79156918</t>
-  </si>
-  <si>
-    <t>188149980</t>
-  </si>
-  <si>
-    <t>522290</t>
-  </si>
-  <si>
-    <t>testicular neoplasms</t>
-  </si>
-  <si>
-    <t>79243440</t>
-  </si>
-  <si>
-    <t>163685449</t>
-  </si>
-  <si>
-    <t>5131040</t>
-  </si>
-  <si>
-    <t>pulmonary edema</t>
-  </si>
-  <si>
-    <t>79231349</t>
-  </si>
-  <si>
-    <t>130304616</t>
-  </si>
-  <si>
-    <t>448918</t>
-  </si>
-  <si>
-    <t>malignant neoplasm of stomach</t>
-  </si>
-  <si>
-    <t>79237060</t>
-  </si>
-  <si>
-    <t>79236826</t>
-  </si>
-  <si>
-    <t>127200183</t>
-  </si>
-  <si>
-    <t>437699</t>
-  </si>
-  <si>
-    <t>hepatitis</t>
-  </si>
-  <si>
-    <t>79200737</t>
-  </si>
-  <si>
-    <t>128634246</t>
-  </si>
-  <si>
-    <t>4049024</t>
-  </si>
-  <si>
-    <t>hypercalcemia</t>
-  </si>
-  <si>
-    <t>79202589</t>
-  </si>
-  <si>
-    <t>125601853</t>
-  </si>
-  <si>
-    <t>4048351</t>
-  </si>
-  <si>
-    <t>hematoma, subdural</t>
-  </si>
-  <si>
-    <t>79198424</t>
-  </si>
-  <si>
-    <t>190925822</t>
-  </si>
-  <si>
-    <t>4048316</t>
-  </si>
-  <si>
-    <t>heart failure</t>
-  </si>
-  <si>
-    <t>79197682</t>
-  </si>
-  <si>
-    <t>122808076</t>
-  </si>
-  <si>
-    <t>173915682</t>
-  </si>
-  <si>
-    <t>4041637</t>
-  </si>
-  <si>
-    <t>esophageal diseases</t>
-  </si>
-  <si>
-    <t>79185192</t>
-  </si>
-  <si>
-    <t>154622720</t>
-  </si>
-  <si>
-    <t>4040839</t>
-  </si>
-  <si>
-    <t>diabetes mellitus</t>
-  </si>
-  <si>
-    <t>79175379</t>
-  </si>
-  <si>
-    <t>155358928</t>
-  </si>
-  <si>
-    <t>4035332</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>79186143</t>
-  </si>
-  <si>
-    <t>79186185</t>
-  </si>
-  <si>
-    <t>197369044</t>
-  </si>
-  <si>
-    <t>4034252</t>
-  </si>
-  <si>
-    <t>leukocytosis</t>
-  </si>
-  <si>
-    <t>79215740</t>
-  </si>
-  <si>
-    <t>170063654</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>3816063</t>
-  </si>
-  <si>
-    <t>thrombocytopenia</t>
-  </si>
-  <si>
-    <t>79243682</t>
-  </si>
-  <si>
-    <t>166937606</t>
-  </si>
-  <si>
-    <t>191293983</t>
-  </si>
-  <si>
-    <t>3000767</t>
-  </si>
-  <si>
-    <t>phb2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>84285519</t>
-  </si>
-  <si>
-    <t>160272484</t>
-  </si>
-  <si>
-    <t>2786788</t>
-  </si>
-  <si>
-    <t>cyp2c9 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86008027</t>
-  </si>
-  <si>
-    <t>123467572</t>
-  </si>
-  <si>
-    <t>123470348</t>
+    <t>12747976</t>
+  </si>
+  <si>
+    <t>12747435</t>
+  </si>
+  <si>
+    <t>70623557</t>
   </si>
   <si>
     <t>128572</t>
@@ -1340,10 +1328,10 @@
     <t>renal cell carcinoma</t>
   </si>
   <si>
-    <t>79165463</t>
-  </si>
-  <si>
-    <t>124296714</t>
+    <t>12762776</t>
+  </si>
+  <si>
+    <t>61287604</t>
   </si>
   <si>
     <t>104390</t>
@@ -1352,10 +1340,10 @@
     <t>liver failure</t>
   </si>
   <si>
-    <t>79215764</t>
-  </si>
-  <si>
-    <t>128634142</t>
+    <t>12819000</t>
+  </si>
+  <si>
+    <t>62248779</t>
   </si>
   <si>
     <t>3814880</t>
@@ -1364,10 +1352,10 @@
     <t>spironolactone</t>
   </si>
   <si>
-    <t>84272883</t>
-  </si>
-  <si>
-    <t>131754454</t>
+    <t>19878061</t>
+  </si>
+  <si>
+    <t>65416360</t>
   </si>
   <si>
     <t>4041441</t>
@@ -1376,13 +1364,10 @@
     <t>diclofenac</t>
   </si>
   <si>
-    <t>83444279</t>
-  </si>
-  <si>
-    <t>binds with</t>
-  </si>
-  <si>
-    <t>134195607</t>
+    <t>19294599</t>
+  </si>
+  <si>
+    <t>67867774</t>
   </si>
   <si>
     <t>836328</t>
@@ -1391,16 +1376,16 @@
     <t>blood</t>
   </si>
   <si>
-    <t>104694808</t>
+    <t>38349705</t>
   </si>
   <si>
     <t>is part of</t>
   </si>
   <si>
-    <t>160703773</t>
-  </si>
-  <si>
-    <t>159553704</t>
+    <t>93370995</t>
+  </si>
+  <si>
+    <t>94509228</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1590,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3031.0</v>
+        <v>7670.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1623,16 +1608,16 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
@@ -1676,10 +1661,28 @@
       <c r="X2" t="s">
         <v>71</v>
       </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>259.0</v>
+        <v>5156.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1691,51 +1694,87 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" t="s">
-        <v>82</v>
+      <c r="AC3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>237.0</v>
+        <v>3031.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1747,39 +1786,69 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>193.0</v>
+        <v>1933.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1791,51 +1860,51 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>166.0</v>
+        <v>237.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1847,31 +1916,31 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
         <v>65</v>
@@ -1879,7 +1948,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>165.0</v>
+        <v>193.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1891,57 +1960,51 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" t="s">
         <v>67</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>141.0</v>
+        <v>166.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1953,63 +2016,39 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U8" t="s">
-        <v>116</v>
-      </c>
-      <c r="V8" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>136.0</v>
+        <v>165.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2021,82 +2060,52 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" t="s">
-        <v>125</v>
-      </c>
-      <c r="V9" t="s">
-        <v>113</v>
-      </c>
-      <c r="W9" t="s">
-        <v>126</v>
-      </c>
-      <c r="X9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2113,39 +2122,39 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>121.0</v>
+        <v>126.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2157,51 +2166,69 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" t="s">
         <v>71</v>
       </c>
-      <c r="O11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>140</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+      <c r="V11" t="s">
         <v>63</v>
+      </c>
+      <c r="W11" t="s">
+        <v>147</v>
+      </c>
+      <c r="X11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105.0</v>
+        <v>121.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2213,39 +2240,51 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105.0</v>
+        <v>112.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2257,57 +2296,57 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="T13" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91.0</v>
+        <v>105.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2319,87 +2358,39 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" t="s">
-        <v>159</v>
-      </c>
-      <c r="T14" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" t="s">
-        <v>160</v>
-      </c>
-      <c r="V14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W14" t="s">
-        <v>161</v>
-      </c>
-      <c r="X14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73.0</v>
+        <v>65.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2417,33 +2408,33 @@
         <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
         <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
         <v>169</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>65.0</v>
+        <v>58.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2455,39 +2446,45 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
         <v>171</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
         <v>172</v>
       </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
         <v>173</v>
       </c>
-      <c r="L16" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
         <v>174</v>
       </c>
-      <c r="N16" t="s">
-        <v>113</v>
+      <c r="P16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58.0</v>
+        <v>54.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2505,34 +2502,40 @@
         <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
         <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
         <v>178</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s">
         <v>179</v>
       </c>
       <c r="P17" t="s">
         <v>65</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>180</v>
+      </c>
+      <c r="R17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2549,51 +2552,39 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>185</v>
-      </c>
-      <c r="R18" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2605,39 +2596,39 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
         <v>187</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s">
         <v>188</v>
       </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" t="s">
         <v>189</v>
       </c>
-      <c r="L19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>190</v>
-      </c>
-      <c r="N19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2655,33 +2646,45 @@
         <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
         <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M20" t="s">
         <v>194</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>195</v>
+      </c>
+      <c r="P20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2693,45 +2696,45 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" t="s">
         <v>71</v>
-      </c>
-      <c r="O21" t="s">
-        <v>199</v>
-      </c>
-      <c r="P21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2743,40 +2746,40 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="O22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2793,46 +2796,46 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" t="s">
         <v>71</v>
       </c>
-      <c r="M23" t="s">
-        <v>208</v>
-      </c>
-      <c r="N23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O23" t="s">
-        <v>209</v>
-      </c>
-      <c r="P23" t="s">
-        <v>113</v>
-      </c>
       <c r="Q23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -2849,46 +2852,46 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R24" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -2905,45 +2908,45 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>224</v>
+      </c>
+      <c r="P25" t="s">
         <v>65</v>
-      </c>
-      <c r="O25" t="s">
-        <v>221</v>
-      </c>
-      <c r="P25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2955,45 +2958,45 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3005,51 +3008,51 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="O27" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3061,51 +3064,39 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O28" t="s">
-        <v>237</v>
-      </c>
-      <c r="P28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>238</v>
-      </c>
-      <c r="R28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3117,45 +3108,39 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
-      </c>
-      <c r="O29" t="s">
-        <v>243</v>
-      </c>
-      <c r="P29" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3173,33 +3158,39 @@
         <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
         <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
         <v>247</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="O30" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3211,64 +3202,34 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N31" t="s">
-        <v>186</v>
-      </c>
-      <c r="O31" t="s">
-        <v>252</v>
-      </c>
-      <c r="P31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>253</v>
-      </c>
-      <c r="R31" t="s">
-        <v>63</v>
-      </c>
-      <c r="S31" t="s">
-        <v>254</v>
-      </c>
-      <c r="T31" t="s">
-        <v>113</v>
-      </c>
-      <c r="U31" t="s">
-        <v>255</v>
-      </c>
-      <c r="V31" t="s">
-        <v>113</v>
-      </c>
-      <c r="W31" t="s">
-        <v>256</v>
-      </c>
-      <c r="X31" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
@@ -3285,34 +3246,70 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" t="s">
         <v>257</v>
       </c>
-      <c r="F32" t="s">
+      <c r="P32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q32" t="s">
         <v>258</v>
       </c>
-      <c r="G32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="R32" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" t="s">
         <v>259</v>
       </c>
-      <c r="L32" t="s">
+      <c r="T32" t="s">
+        <v>61</v>
+      </c>
+      <c r="U32" t="s">
+        <v>260</v>
+      </c>
+      <c r="V32" t="s">
         <v>71</v>
       </c>
-      <c r="M32" t="s">
-        <v>260</v>
-      </c>
-      <c r="N32" t="s">
-        <v>63</v>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -3329,40 +3326,64 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N33" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="O33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P33" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>268</v>
+      </c>
+      <c r="R33" t="s">
+        <v>217</v>
+      </c>
+      <c r="S33" t="s">
+        <v>269</v>
+      </c>
+      <c r="T33" t="s">
+        <v>61</v>
+      </c>
+      <c r="U33" t="s">
+        <v>270</v>
+      </c>
+      <c r="V33" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" t="s">
+        <v>271</v>
+      </c>
+      <c r="X33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -3379,34 +3400,58 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N34" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="O34" t="s">
+        <v>276</v>
+      </c>
+      <c r="P34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>277</v>
+      </c>
+      <c r="R34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" t="s">
+        <v>278</v>
+      </c>
+      <c r="T34" t="s">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s">
+        <v>279</v>
+      </c>
+      <c r="V34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -3423,75 +3468,45 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="O35" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P35" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>275</v>
-      </c>
-      <c r="R35" t="s">
-        <v>113</v>
-      </c>
-      <c r="S35" t="s">
-        <v>276</v>
-      </c>
-      <c r="T35" t="s">
-        <v>67</v>
-      </c>
-      <c r="U35" t="s">
-        <v>277</v>
-      </c>
-      <c r="V35" t="s">
-        <v>65</v>
-      </c>
-      <c r="W35" t="s">
-        <v>278</v>
-      </c>
-      <c r="X35" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -3503,69 +3518,45 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="O36" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>285</v>
-      </c>
-      <c r="R36" t="s">
-        <v>113</v>
-      </c>
-      <c r="S36" t="s">
-        <v>286</v>
-      </c>
-      <c r="T36" t="s">
-        <v>113</v>
-      </c>
-      <c r="U36" t="s">
-        <v>287</v>
-      </c>
-      <c r="V36" t="s">
-        <v>63</v>
-      </c>
-      <c r="W36" t="s">
-        <v>288</v>
-      </c>
-      <c r="X36" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -3577,45 +3568,51 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" t="s">
+        <v>293</v>
+      </c>
+      <c r="N37" t="s">
         <v>71</v>
       </c>
-      <c r="M37" t="s">
-        <v>292</v>
-      </c>
-      <c r="N37" t="s">
-        <v>111</v>
-      </c>
       <c r="O37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>67</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>295</v>
+      </c>
+      <c r="R37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3627,46 +3624,34 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s">
-        <v>113</v>
-      </c>
-      <c r="O38" t="s">
-        <v>298</v>
-      </c>
-      <c r="P38" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>299</v>
-      </c>
-      <c r="R38" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -3689,34 +3674,34 @@
         <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
         <v>302</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M39" t="s">
         <v>303</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O39" t="s">
         <v>304</v>
       </c>
       <c r="P39" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -3739,40 +3724,28 @@
         <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
         <v>307</v>
       </c>
       <c r="L40" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M40" t="s">
         <v>308</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
-      </c>
-      <c r="O40" t="s">
-        <v>309</v>
-      </c>
-      <c r="P40" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>310</v>
-      </c>
-      <c r="R40" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -3789,46 +3762,34 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
         <v>311</v>
       </c>
-      <c r="F41" t="s">
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" t="s">
         <v>312</v>
       </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" t="s">
-        <v>313</v>
-      </c>
-      <c r="L41" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" t="s">
-        <v>314</v>
-      </c>
       <c r="N41" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" t="s">
-        <v>315</v>
-      </c>
-      <c r="P41" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>316</v>
-      </c>
-      <c r="R41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -3845,34 +3806,34 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -3889,39 +3850,51 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" t="s">
+        <v>320</v>
+      </c>
+      <c r="N43" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" t="s">
         <v>321</v>
       </c>
-      <c r="F43" t="s">
+      <c r="P43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" t="s">
         <v>322</v>
       </c>
-      <c r="G43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" t="s">
-        <v>323</v>
-      </c>
-      <c r="L43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" t="s">
-        <v>324</v>
-      </c>
-      <c r="N43" t="s">
-        <v>163</v>
+      <c r="R43" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -3933,39 +3906,51 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
+        <v>323</v>
+      </c>
+      <c r="F44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
         <v>325</v>
       </c>
-      <c r="F44" t="s">
+      <c r="L44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" t="s">
         <v>326</v>
       </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="N44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O44" t="s">
         <v>327</v>
       </c>
-      <c r="L44" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" t="s">
         <v>328</v>
       </c>
-      <c r="N44" t="s">
-        <v>113</v>
+      <c r="R44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -3983,33 +3968,39 @@
         <v>330</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K45" t="s">
         <v>331</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M45" t="s">
         <v>332</v>
       </c>
       <c r="N45" t="s">
-        <v>113</v>
+        <v>71</v>
+      </c>
+      <c r="O45" t="s">
+        <v>333</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4021,40 +4012,34 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N46" t="s">
-        <v>65</v>
-      </c>
-      <c r="O46" t="s">
-        <v>337</v>
-      </c>
-      <c r="P46" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -4077,39 +4062,51 @@
         <v>339</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
         <v>340</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M47" t="s">
         <v>341</v>
       </c>
       <c r="N47" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="O47" t="s">
         <v>342</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>67</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>343</v>
+      </c>
+      <c r="R47" t="s">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s">
+        <v>344</v>
+      </c>
+      <c r="T47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4121,34 +4118,40 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M48" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N48" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="O48" t="s">
+        <v>349</v>
+      </c>
+      <c r="P48" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -4165,46 +4168,34 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M49" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N49" t="s">
-        <v>65</v>
-      </c>
-      <c r="O49" t="s">
-        <v>351</v>
-      </c>
-      <c r="P49" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>352</v>
-      </c>
-      <c r="R49" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
@@ -4221,34 +4212,40 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s">
-        <v>117</v>
+        <v>61</v>
+      </c>
+      <c r="O50" t="s">
+        <v>358</v>
+      </c>
+      <c r="P50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -4265,40 +4262,34 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M51" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
-      </c>
-      <c r="O51" t="s">
-        <v>361</v>
-      </c>
-      <c r="P51" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
@@ -4315,34 +4306,34 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -4359,52 +4350,34 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s">
-        <v>63</v>
-      </c>
-      <c r="O53" t="s">
-        <v>370</v>
-      </c>
-      <c r="P53" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>371</v>
-      </c>
-      <c r="R53" t="s">
-        <v>113</v>
-      </c>
-      <c r="S53" t="s">
-        <v>372</v>
-      </c>
-      <c r="T53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
@@ -4421,34 +4394,34 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" t="s">
         <v>373</v>
       </c>
-      <c r="F54" t="s">
+      <c r="L54" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" t="s">
         <v>374</v>
       </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" t="s">
-        <v>375</v>
-      </c>
-      <c r="L54" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" t="s">
-        <v>376</v>
-      </c>
       <c r="N54" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55">
@@ -4465,34 +4438,34 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" t="s">
         <v>377</v>
       </c>
-      <c r="F55" t="s">
+      <c r="L55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" t="s">
         <v>378</v>
       </c>
-      <c r="G55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" t="s">
-        <v>379</v>
-      </c>
-      <c r="L55" t="s">
-        <v>71</v>
-      </c>
-      <c r="M55" t="s">
-        <v>380</v>
-      </c>
       <c r="N55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -4509,34 +4482,34 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" t="s">
         <v>381</v>
       </c>
-      <c r="F56" t="s">
+      <c r="L56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" t="s">
         <v>382</v>
       </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" t="s">
-        <v>383</v>
-      </c>
-      <c r="L56" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" t="s">
-        <v>384</v>
-      </c>
       <c r="N56" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -4553,40 +4526,34 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" t="s">
         <v>385</v>
       </c>
-      <c r="F57" t="s">
+      <c r="L57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" t="s">
         <v>386</v>
       </c>
-      <c r="G57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" t="s">
-        <v>387</v>
-      </c>
-      <c r="L57" t="s">
-        <v>71</v>
-      </c>
-      <c r="M57" t="s">
-        <v>388</v>
-      </c>
       <c r="N57" t="s">
-        <v>111</v>
-      </c>
-      <c r="O57" t="s">
-        <v>389</v>
-      </c>
-      <c r="P57" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -4603,34 +4570,40 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" t="s">
+        <v>389</v>
+      </c>
+      <c r="L58" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" t="s">
         <v>390</v>
       </c>
-      <c r="F58" t="s">
+      <c r="N58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" t="s">
         <v>391</v>
       </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" t="s">
-        <v>392</v>
-      </c>
-      <c r="L58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" t="s">
-        <v>393</v>
-      </c>
-      <c r="N58" t="s">
-        <v>63</v>
+      <c r="P58" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59">
@@ -4647,34 +4620,34 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>392</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
         <v>394</v>
       </c>
-      <c r="F59" t="s">
+      <c r="L59" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" t="s">
         <v>395</v>
       </c>
-      <c r="G59" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" t="s">
-        <v>55</v>
-      </c>
-      <c r="I59" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" t="s">
-        <v>396</v>
-      </c>
-      <c r="L59" t="s">
-        <v>71</v>
-      </c>
-      <c r="M59" t="s">
-        <v>397</v>
-      </c>
       <c r="N59" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -4691,34 +4664,34 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
+        <v>396</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" t="s">
         <v>398</v>
       </c>
-      <c r="F60" t="s">
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" t="s">
         <v>399</v>
       </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" t="s">
-        <v>56</v>
-      </c>
-      <c r="J60" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" t="s">
-        <v>400</v>
-      </c>
-      <c r="L60" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" t="s">
-        <v>401</v>
-      </c>
       <c r="N60" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
@@ -4735,40 +4708,40 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
+        <v>400</v>
+      </c>
+      <c r="F61" t="s">
+        <v>401</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" t="s">
         <v>402</v>
       </c>
-      <c r="F61" t="s">
+      <c r="L61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M61" t="s">
         <v>403</v>
       </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" t="s">
         <v>404</v>
       </c>
-      <c r="L61" t="s">
+      <c r="P61" t="s">
         <v>71</v>
-      </c>
-      <c r="M61" t="s">
-        <v>405</v>
-      </c>
-      <c r="N61" t="s">
-        <v>63</v>
-      </c>
-      <c r="O61" t="s">
-        <v>406</v>
-      </c>
-      <c r="P61" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="62">
@@ -4785,34 +4758,34 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" t="s">
         <v>407</v>
       </c>
-      <c r="F62" t="s">
+      <c r="L62" t="s">
+        <v>59</v>
+      </c>
+      <c r="M62" t="s">
         <v>408</v>
       </c>
-      <c r="G62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I62" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
         <v>409</v>
-      </c>
-      <c r="L62" t="s">
-        <v>111</v>
-      </c>
-      <c r="M62" t="s">
-        <v>410</v>
-      </c>
-      <c r="N62" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="63">
@@ -4829,34 +4802,40 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
+        <v>410</v>
+      </c>
+      <c r="F63" t="s">
         <v>411</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" t="s">
         <v>412</v>
       </c>
-      <c r="G63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" t="s">
-        <v>56</v>
-      </c>
-      <c r="J63" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
+        <v>59</v>
+      </c>
+      <c r="M63" t="s">
         <v>413</v>
       </c>
-      <c r="L63" t="s">
-        <v>71</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
+        <v>217</v>
+      </c>
+      <c r="O63" t="s">
         <v>414</v>
       </c>
-      <c r="N63" t="s">
-        <v>113</v>
+      <c r="P63" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64">
@@ -4879,34 +4858,40 @@
         <v>416</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
         <v>417</v>
       </c>
       <c r="L64" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M64" t="s">
         <v>418</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O64" t="s">
         <v>419</v>
       </c>
       <c r="P64" t="s">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>420</v>
+      </c>
+      <c r="R64" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="65">
@@ -4923,34 +4908,34 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N65" t="s">
-        <v>424</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
@@ -4967,40 +4952,40 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="H66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="M66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N66" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -5017,34 +5002,40 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G67" t="s">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K67" t="s">
         <v>433</v>
       </c>
       <c r="L67" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M67" t="s">
         <v>434</v>
       </c>
       <c r="N67" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="O67" t="s">
+        <v>435</v>
+      </c>
+      <c r="P67" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="68">
@@ -5061,40 +5052,34 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G68" t="s">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M68" t="s">
+        <v>439</v>
+      </c>
+      <c r="N68" t="s">
         <v>67</v>
-      </c>
-      <c r="M68" t="s">
-        <v>438</v>
-      </c>
-      <c r="N68" t="s">
-        <v>87</v>
-      </c>
-      <c r="O68" t="s">
-        <v>439</v>
-      </c>
-      <c r="P68" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="69">
@@ -5117,33 +5102,33 @@
         <v>441</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K69" t="s">
         <v>442</v>
       </c>
       <c r="L69" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="M69" t="s">
         <v>443</v>
       </c>
       <c r="N69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -5161,33 +5146,33 @@
         <v>445</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K70" t="s">
         <v>446</v>
       </c>
       <c r="L70" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="M70" t="s">
         <v>447</v>
       </c>
       <c r="N70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -5208,30 +5193,30 @@
         <v>52</v>
       </c>
       <c r="H71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s">
         <v>450</v>
       </c>
       <c r="L71" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s">
         <v>451</v>
       </c>
       <c r="N71" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -5249,16 +5234,16 @@
         <v>453</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K72" t="s">
         <v>454</v>
@@ -5270,57 +5255,13 @@
         <v>456</v>
       </c>
       <c r="N72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" t="s">
+        <v>190</v>
+      </c>
+      <c r="O72" t="s">
         <v>457</v>
       </c>
-      <c r="F73" t="s">
-        <v>458</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" t="s">
-        <v>55</v>
-      </c>
-      <c r="I73" t="s">
-        <v>56</v>
-      </c>
-      <c r="J73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" t="s">
-        <v>459</v>
-      </c>
-      <c r="L73" t="s">
-        <v>460</v>
-      </c>
-      <c r="M73" t="s">
-        <v>461</v>
-      </c>
-      <c r="N73" t="s">
-        <v>150</v>
-      </c>
-      <c r="O73" t="s">
-        <v>462</v>
-      </c>
-      <c r="P73" t="s">
-        <v>82</v>
+      <c r="P72" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
